--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/06,25/10,06,25 Ост СЫР филиалы/дв 10,06,25 лгрсч ост сыр.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/06,25/10,06,25 Ост СЫР филиалы/дв 10,06,25 лгрсч ост сыр.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\10,06,25 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\06,25\10,06,25 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5EC369-26F6-4BC6-9891-676F2F040FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A03B420-368D-4F6D-8755-269FAB338CC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>ср нов</t>
-  </si>
-  <si>
-    <t>расчет</t>
   </si>
   <si>
     <t>заказ филиала</t>
@@ -291,6 +288,9 @@
       </rPr>
       <t xml:space="preserve"> / 05,05,25 в уценку 19шт.</t>
     </r>
+  </si>
+  <si>
+    <t>заказ</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,55 +935,55 @@
         <v>14</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
@@ -1019,45 +1019,47 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -1097,78 +1099,78 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="4">
-        <f>SUM(J6:J498)</f>
+        <f t="shared" ref="J5:Q5" si="0">SUM(J6:J498)</f>
         <v>246.5</v>
       </c>
       <c r="K5" s="4">
-        <f>SUM(K6:K498)</f>
+        <f t="shared" si="0"/>
         <v>-37.932000000000002</v>
       </c>
       <c r="L5" s="4">
-        <f>SUM(L6:L498)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <f>SUM(M6:M498)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>SUM(N6:N498)</f>
+        <f t="shared" si="0"/>
         <v>525.79999999999995</v>
       </c>
       <c r="O5" s="4">
-        <f>SUM(O6:O498)</f>
+        <f t="shared" si="0"/>
         <v>41.7136</v>
       </c>
       <c r="P5" s="4">
-        <f>SUM(P6:P498)</f>
+        <f t="shared" si="0"/>
         <v>228</v>
       </c>
       <c r="Q5" s="4">
-        <f>SUM(Q6:Q498)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="4">
-        <f>SUM(U6:U498)</f>
+        <f t="shared" ref="U5:AD5" si="1">SUM(U6:U498)</f>
         <v>48.073399999999985</v>
       </c>
       <c r="V5" s="4">
-        <f>SUM(V6:V498)</f>
+        <f t="shared" si="1"/>
         <v>52.4482</v>
       </c>
       <c r="W5" s="4">
-        <f>SUM(W6:W498)</f>
+        <f t="shared" si="1"/>
         <v>39.23980000000001</v>
       </c>
       <c r="X5" s="4">
-        <f>SUM(X6:X498)</f>
+        <f t="shared" si="1"/>
         <v>49.214599999999997</v>
       </c>
       <c r="Y5" s="4">
-        <f>SUM(Y6:Y498)</f>
+        <f t="shared" si="1"/>
         <v>44.58</v>
       </c>
       <c r="Z5" s="4">
-        <f>SUM(Z6:Z498)</f>
+        <f t="shared" si="1"/>
         <v>56.931000000000004</v>
       </c>
       <c r="AA5" s="4">
-        <f>SUM(AA6:AA498)</f>
+        <f t="shared" si="1"/>
         <v>69.763199999999998</v>
       </c>
       <c r="AB5" s="4">
-        <f>SUM(AB6:AB498)</f>
+        <f t="shared" si="1"/>
         <v>121.79459999999997</v>
       </c>
       <c r="AC5" s="4">
-        <f>SUM(AC6:AC498)</f>
+        <f t="shared" si="1"/>
         <v>89.576599999999985</v>
       </c>
       <c r="AD5" s="4">
-        <f>SUM(AD6:AD498)</f>
+        <f t="shared" si="1"/>
         <v>127.32220000000001</v>
       </c>
       <c r="AE5" s="1"/>
@@ -1197,10 +1199,10 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C6" s="1">
         <v>88</v>
@@ -1225,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K6:K37" si="0">E6-J6</f>
+        <f t="shared" ref="K6:K37" si="2">E6-J6</f>
         <v>1</v>
       </c>
       <c r="L6" s="1"/>
@@ -1277,7 +1279,7 @@
         <v>1.4</v>
       </c>
       <c r="AE6" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF6" s="1">
         <f>G6*P6</f>
@@ -1304,10 +1306,10 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1324,7 +1326,7 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L7" s="1"/>
@@ -1333,18 +1335,18 @@
         <v>12</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" ref="O7:O37" si="1">E7/5</f>
+        <f t="shared" ref="O7:O37" si="3">E7/5</f>
         <v>0</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="e">
-        <f t="shared" ref="S7:S37" si="2">(F7+N7+P7)/O7</f>
+        <f t="shared" ref="S7:S37" si="4">(F7+N7+P7)/O7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T7" s="1" t="e">
-        <f t="shared" ref="T7:T37" si="3">(F7+N7)/O7</f>
+        <f t="shared" ref="T7:T37" si="5">(F7+N7)/O7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U7" s="1">
@@ -1403,10 +1405,10 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1431,28 +1433,28 @@
         <v>3</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" ref="P7:P8" si="4">20*O8-N8-F8</f>
+        <f t="shared" ref="P8" si="6">20*O8-N8-F8</f>
         <v>8</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="T8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.666666666666667</v>
       </c>
       <c r="U8" s="1">
@@ -1511,10 +1513,10 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="13">
         <v>9</v>
@@ -1531,31 +1533,31 @@
         <v>#N/A</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" s="13">
         <v>1</v>
       </c>
       <c r="K9" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T9" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U9" s="13">
@@ -1611,10 +1613,10 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="13">
         <v>9</v>
@@ -1631,31 +1633,31 @@
         <v>#N/A</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="13">
         <v>1</v>
       </c>
       <c r="K10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T10" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U10" s="13">
@@ -1711,10 +1713,10 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="13">
         <v>18</v>
@@ -1733,31 +1735,31 @@
         <v>#N/A</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" s="13">
         <v>1</v>
       </c>
       <c r="K11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="13"/>
       <c r="S11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="T11" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="U11" s="13">
@@ -1791,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF11" s="13"/>
       <c r="AG11" s="1"/>
@@ -1815,10 +1817,10 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1">
         <v>32</v>
@@ -1839,25 +1841,25 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T12" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U12" s="1">
@@ -1891,10 +1893,10 @@
         <v>0.4</v>
       </c>
       <c r="AE12" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF12" s="1">
-        <f>G12*P12</f>
+        <f t="shared" ref="AF12:AF37" si="7">G12*P12</f>
         <v>0</v>
       </c>
       <c r="AG12" s="1"/>
@@ -1918,10 +1920,10 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1938,7 +1940,7 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L13" s="1"/>
@@ -1947,18 +1949,18 @@
         <v>28</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T13" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U13" s="1">
@@ -1992,10 +1994,10 @@
         <v>2.4</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF13" s="1">
-        <f>G13*P13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG13" s="1"/>
@@ -2019,10 +2021,10 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -2039,25 +2041,25 @@
       </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T14" s="20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U14" s="20">
@@ -2091,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="AE14" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF14" s="20">
-        <f>G14*P14</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG14" s="1"/>
@@ -2118,10 +2120,10 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>52</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -2138,25 +2140,25 @@
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T15" s="20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U15" s="20">
@@ -2190,10 +2192,10 @@
         <v>0</v>
       </c>
       <c r="AE15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF15" s="20">
-        <f>G15*P15</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG15" s="1"/>
@@ -2217,10 +2219,10 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -2237,25 +2239,25 @@
       </c>
       <c r="J16" s="20"/>
       <c r="K16" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T16" s="20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U16" s="20">
@@ -2289,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="AE16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF16" s="20">
-        <f>G16*P16</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG16" s="1"/>
@@ -2316,10 +2318,10 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
@@ -2344,7 +2346,7 @@
         <v>12</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-11</v>
       </c>
       <c r="L17" s="1"/>
@@ -2353,18 +2355,18 @@
         <v>49.8</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>258.99999999999994</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>258.99999999999994</v>
       </c>
       <c r="U17" s="1">
@@ -2399,7 +2401,7 @@
       </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1">
-        <f>G17*P17</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG17" s="1"/>
@@ -2423,10 +2425,10 @@
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1">
         <v>31</v>
@@ -2451,7 +2453,7 @@
         <v>37</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-12</v>
       </c>
       <c r="L18" s="1"/>
@@ -2460,18 +2462,18 @@
         <v>109</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="U18" s="1">
@@ -2506,7 +2508,7 @@
       </c>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1">
-        <f>G18*P18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG18" s="1"/>
@@ -2530,10 +2532,10 @@
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2550,25 +2552,25 @@
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
       <c r="O19" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="20"/>
       <c r="S19" s="20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T19" s="20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U19" s="20">
@@ -2602,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="AE19" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF19" s="20">
-        <f>G19*P19</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG19" s="1"/>
@@ -2629,10 +2631,10 @@
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2649,25 +2651,25 @@
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
       <c r="R20" s="20"/>
       <c r="S20" s="20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T20" s="20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U20" s="20">
@@ -2701,10 +2703,10 @@
         <v>0</v>
       </c>
       <c r="AE20" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF20" s="20">
-        <f>G20*P20</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG20" s="1"/>
@@ -2728,10 +2730,10 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1">
         <v>63</v>
@@ -2756,7 +2758,7 @@
         <v>54</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="L21" s="1"/>
@@ -2765,21 +2767,21 @@
         <v>69</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" ref="P21:P22" si="5">20*O21-N21-F21</f>
+        <f t="shared" ref="P21:P22" si="8">20*O21-N21-F21</f>
         <v>124</v>
       </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.6</v>
       </c>
       <c r="U21" s="1">
@@ -2814,7 +2816,7 @@
       </c>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1">
-        <f>G21*P21</f>
+        <f t="shared" si="7"/>
         <v>22.32</v>
       </c>
       <c r="AG21" s="1"/>
@@ -2838,10 +2840,10 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1">
         <v>63</v>
@@ -2866,7 +2868,7 @@
         <v>31</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="L22" s="1"/>
@@ -2875,21 +2877,21 @@
         <v>21</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.8</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.4482758620689662</v>
       </c>
       <c r="U22" s="1">
@@ -2924,7 +2926,7 @@
       </c>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1">
-        <f>G22*P22</f>
+        <f t="shared" si="7"/>
         <v>12.059999999999999</v>
       </c>
       <c r="AG22" s="1"/>
@@ -2948,10 +2950,10 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -2968,25 +2970,25 @@
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
       <c r="O23" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="20"/>
       <c r="S23" s="20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T23" s="20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U23" s="20">
@@ -3020,10 +3022,10 @@
         <v>0</v>
       </c>
       <c r="AE23" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF23" s="20">
-        <f>G23*P23</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG23" s="1"/>
@@ -3047,10 +3049,10 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -3067,25 +3069,25 @@
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
       <c r="O24" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T24" s="17" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U24" s="17">
@@ -3119,10 +3121,10 @@
         <v>0</v>
       </c>
       <c r="AE24" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF24" s="17">
-        <f>G24*P24</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG24" s="1"/>
@@ -3146,10 +3148,10 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
@@ -3166,25 +3168,25 @@
       </c>
       <c r="J25" s="20"/>
       <c r="K25" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
       <c r="N25" s="20"/>
       <c r="O25" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
       <c r="R25" s="20"/>
       <c r="S25" s="20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T25" s="20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U25" s="20">
@@ -3218,10 +3220,10 @@
         <v>0</v>
       </c>
       <c r="AE25" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF25" s="20">
-        <f>G25*P25</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG25" s="1"/>
@@ -3245,10 +3247,10 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
@@ -3265,25 +3267,25 @@
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
       <c r="R26" s="20"/>
       <c r="S26" s="20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T26" s="20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U26" s="20">
@@ -3317,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="AE26" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF26" s="20">
-        <f>G26*P26</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG26" s="1"/>
@@ -3344,10 +3346,10 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
@@ -3364,25 +3366,25 @@
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
       <c r="O27" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P27" s="22"/>
       <c r="Q27" s="22"/>
       <c r="R27" s="20"/>
       <c r="S27" s="20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T27" s="20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U27" s="20">
@@ -3416,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="AE27" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF27" s="20">
-        <f>G27*P27</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG27" s="1"/>
@@ -3443,10 +3445,10 @@
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -3463,25 +3465,25 @@
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
       <c r="N28" s="20"/>
       <c r="O28" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P28" s="22"/>
       <c r="Q28" s="22"/>
       <c r="R28" s="20"/>
       <c r="S28" s="20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T28" s="20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U28" s="20">
@@ -3515,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="AE28" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF28" s="20">
-        <f>G28*P28</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG28" s="1"/>
@@ -3542,10 +3544,10 @@
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
@@ -3562,25 +3564,25 @@
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
       <c r="N29" s="20"/>
       <c r="O29" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P29" s="22"/>
       <c r="Q29" s="22"/>
       <c r="R29" s="20"/>
       <c r="S29" s="20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T29" s="20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U29" s="20">
@@ -3614,10 +3616,10 @@
         <v>1.8</v>
       </c>
       <c r="AE29" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF29" s="20">
-        <f>G29*P29</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG29" s="1"/>
@@ -3641,10 +3643,10 @@
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
@@ -3661,25 +3663,25 @@
       </c>
       <c r="J30" s="20"/>
       <c r="K30" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
       <c r="O30" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P30" s="22"/>
       <c r="Q30" s="22"/>
       <c r="R30" s="20"/>
       <c r="S30" s="20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T30" s="20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U30" s="20">
@@ -3713,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="AE30" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF30" s="20">
-        <f>G30*P30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG30" s="1"/>
@@ -3740,10 +3742,10 @@
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
@@ -3760,25 +3762,25 @@
       </c>
       <c r="J31" s="20"/>
       <c r="K31" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
       <c r="O31" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P31" s="22"/>
       <c r="Q31" s="22"/>
       <c r="R31" s="20"/>
       <c r="S31" s="20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U31" s="20">
@@ -3812,10 +3814,10 @@
         <v>0</v>
       </c>
       <c r="AE31" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF31" s="20">
-        <f>G31*P31</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG31" s="1"/>
@@ -3839,10 +3841,10 @@
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -3859,25 +3861,25 @@
       </c>
       <c r="J32" s="20"/>
       <c r="K32" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
       <c r="N32" s="20"/>
       <c r="O32" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P32" s="22"/>
       <c r="Q32" s="22"/>
       <c r="R32" s="20"/>
       <c r="S32" s="20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U32" s="20">
@@ -3911,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="AE32" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF32" s="20">
-        <f>G32*P32</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG32" s="1"/>
@@ -3938,10 +3940,10 @@
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -3958,25 +3960,25 @@
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
       <c r="N33" s="20"/>
       <c r="O33" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
       <c r="R33" s="20"/>
       <c r="S33" s="20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T33" s="20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U33" s="20">
@@ -4010,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="AE33" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF33" s="20">
-        <f>G33*P33</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG33" s="1"/>
@@ -4037,10 +4039,10 @@
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
         <v>35</v>
@@ -4063,7 +4065,7 @@
         <v>32</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
       <c r="L34" s="1"/>
@@ -4072,18 +4074,18 @@
         <v>137</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.4</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25.37037037037037</v>
       </c>
       <c r="T34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25.37037037037037</v>
       </c>
       <c r="U34" s="1">
@@ -4117,10 +4119,10 @@
         <v>17.2</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF34" s="1">
-        <f>G34*P34</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG34" s="1"/>
@@ -4144,10 +4146,10 @@
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1">
         <v>197.76499999999999</v>
@@ -4172,25 +4174,25 @@
         <v>7</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.0999999999999996</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1800000000000002</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>162.59745762711864</v>
       </c>
       <c r="T35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>162.59745762711864</v>
       </c>
       <c r="U35" s="1">
@@ -4224,10 +4226,10 @@
         <v>17.355</v>
       </c>
       <c r="AE35" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF35" s="1">
-        <f>G35*P35</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG35" s="1"/>
@@ -4251,10 +4253,10 @@
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
         <v>64</v>
@@ -4279,7 +4281,7 @@
         <v>41</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="L36" s="1"/>
@@ -4288,21 +4290,21 @@
         <v>100</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.4</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" ref="P34:P37" si="6">20*O36-N36-F36</f>
+        <f t="shared" ref="P36" si="9">20*O36-N36-F36</f>
         <v>29</v>
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.081081081081081</v>
       </c>
       <c r="U36" s="1">
@@ -4337,7 +4339,7 @@
       </c>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1">
-        <f>G36*P36</f>
+        <f t="shared" si="7"/>
         <v>5.8000000000000007</v>
       </c>
       <c r="AG36" s="1"/>
@@ -4361,10 +4363,10 @@
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="1">
         <v>100.39400000000001</v>
@@ -4389,25 +4391,25 @@
         <v>10.5</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16799999999999926</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1335999999999999</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42.053805774278217</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>42.053805774278217</v>
       </c>
       <c r="U37" s="1">
@@ -4441,10 +4443,10 @@
         <v>4.9672000000000001</v>
       </c>
       <c r="AE37" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF37" s="1">
-        <f>G37*P37</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG37" s="1"/>
@@ -4520,10 +4522,10 @@
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1">
         <v>55</v>
@@ -4560,11 +4562,11 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1">
-        <f t="shared" ref="S39:S40" si="7">(F39+N39+P39)/O39</f>
+        <f t="shared" ref="S39:S40" si="10">(F39+N39+P39)/O39</f>
         <v>83.333333333333343</v>
       </c>
       <c r="T39" s="1">
-        <f t="shared" ref="T39:T40" si="8">(F39+N39)/O39</f>
+        <f t="shared" ref="T39:T40" si="11">(F39+N39)/O39</f>
         <v>83.333333333333343</v>
       </c>
       <c r="U39" s="1">
@@ -4598,7 +4600,7 @@
         <v>9.4</v>
       </c>
       <c r="AE39" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
@@ -4622,10 +4624,10 @@
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1">
         <v>342</v>
@@ -4662,11 +4664,11 @@
       <c r="Q40" s="5"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>137.08333333333334</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>137.08333333333334</v>
       </c>
       <c r="U40" s="1">
@@ -4700,7 +4702,7 @@
         <v>12.6</v>
       </c>
       <c r="AE40" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
